--- a/pred_ohlcv/54_21/2019-10-29 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LTC ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>17.62421718000007</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>40.27031718000007</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3.493017180000074</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3.541017180000074</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-89.76638281999993</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-93.03708281999994</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-70.91938281999994</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-90.96028281999995</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-90.96028281999995</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-106.9853828199999</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-102.8464828199999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-90.80158281999995</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-89.80168281999995</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-86.42218281999996</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-86.42218281999996</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-101.61308282</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-158.61308282</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-158.61308282</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-157.25858282</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-161.12148282</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-171.3890828199999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-245.8256828199999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-254.7837828199999</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-258.39808282</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-272.24628282</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-272.2615828199999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-251.4061828199999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-251.47418282</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-249.5619828199999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-181.5945828199999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-185.53668282</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-185.27398282</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-175.98918282</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-138.98698282</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-171.56570776</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-169.36910776</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-93.39100775999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>32.09079224000001</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>49.78539224000001</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>34.86759224000001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>36.91519224000002</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>22.40869224000001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24.34559224000002</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6.806592240000015</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>8.051892240000015</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-150.97350776</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-154.47040776</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-148.19330776</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-149.08330776</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-615.8160077599999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1537.105843200001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1553.562643200001</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1561.934643200001</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1561.804643200001</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1573.399643200001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1622.922943200001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1626.399043200001</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1662.504743200001</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1662.739143200002</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2506.921866759998</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1273.078133240002</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2076.921866759998</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2076.921866759998</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3630.702434159999</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3630.702434159999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>3620.167934159998</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3568.011534159999</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3714.888234159998</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>3542.050734159999</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>3542.050734159999</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>3541.609234159999</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3541.609234159999</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3556.457234159999</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3570.310434159999</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3620.250234159999</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3635.404134159999</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>3688.587134159999</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>3680.889034159999</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>4532.216134159999</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-4581.656564080003</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-4668.250764080003</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-4668.250764080003</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-4975.113436160002</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-5253.466036160002</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-5253.002636160002</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-5231.819636160002</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-5202.059036160003</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-5158.901836160002</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-5137.281236160002</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H557">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-5165.274736160001</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-5165.274736160001</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-5155.386536160001</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-4626.797636160001</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4626.557636160001</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-4180.778336160001</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-4183.778336160001</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-3548.483036160001</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-3562.685436160001</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3562.685436160001</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3582.581836160001</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3482.581836160001</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3482.581836160001</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3491.912336160001</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3413.404936160001</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-3491.965036160001</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-3492.611436160001</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-2679.805939090002</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-2701.749139090002</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-2701.749139090002</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-2701.737339090002</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-2478.055339090002</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-2478.055339090002</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-2184.338754030002</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-2027.856554030002</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-2028.056554030002</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-2010.593454030002</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-2110.607281540002</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-2087.480475850002</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-2142.065475850002</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-2142.065475850002</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-2140.733475850002</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-2123.819875850003</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-2123.819875850003</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-2146.318575850003</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-2146.318575850003</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-2270.040475850003</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-2270.040475850003</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-2276.913675850003</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-2276.913675850003</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-2274.108875850003</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-2305.163075850003</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-2305.163075850003</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-2247.694075850003</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-2252.300075850003</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-2236.926075850003</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-2329.620975850003</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-2192.092175850003</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-2192.092175850003</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-2192.092175850003</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-2192.092175850003</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-2192.092175850003</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-2192.092175850003</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-2106.938275850003</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-2277.262475850003</v>
       </c>
       <c r="H701">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-2206.004075850003</v>
       </c>
       <c r="H702">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-2206.004075850003</v>
       </c>
       <c r="H703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-2095.391375850003</v>
       </c>
       <c r="H704">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-2003.585675850003</v>
       </c>
       <c r="H705">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1967.231375850003</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1882.292775850003</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1882.292775850003</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-2031.513675850003</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-2050.895675850003</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-2117.880275850003</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-2256.847675850003</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-2265.619975850003</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1926.922475850003</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1957.005775850003</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 LTC ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>17.62421718000007</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>40.27031718000007</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3.493017180000074</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>3.541017180000074</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-89.76638281999993</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-93.03708281999994</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-70.91938281999994</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-90.96028281999995</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-90.96028281999995</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-106.9853828199999</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-102.8464828199999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-90.80158281999995</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-89.80168281999995</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-86.42218281999996</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-86.42218281999996</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-101.61308282</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-158.61308282</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-158.61308282</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-157.25858282</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-161.12148282</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-171.3890828199999</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-245.8256828199999</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-254.7837828199999</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-258.39808282</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-272.24628282</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-272.2615828199999</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-251.4061828199999</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-251.47418282</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-249.5619828199999</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-181.5945828199999</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-185.53668282</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-185.27398282</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-175.98918282</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-138.98698282</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-171.56570776</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-169.36910776</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-93.39100775999999</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>32.09079224000001</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>49.78539224000001</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>34.86759224000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>36.91519224000002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>24.34559224000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6.806592240000015</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>8.051892240000015</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-150.97350776</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-154.47040776</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1537.105843200001</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-1553.562643200001</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-1561.934643200001</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1561.804643200001</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1573.399643200001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1622.922943200001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-1626.399043200001</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-1662.504743200001</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-1662.739143200002</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>2506.921866759998</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-1273.078133240002</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>2076.921866759998</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>2076.921866759998</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>3630.702434159999</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>3630.702434159999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>3620.167934159998</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>3568.011534159999</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>3714.888234159998</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>3542.050734159999</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>3542.050734159999</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>3541.609234159999</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>3541.609234159999</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>3556.457234159999</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>3570.310434159999</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>3620.250234159999</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>3635.404134159999</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>3688.587134159999</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>3680.889034159999</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>4532.216134159999</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-4581.656564080003</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-4668.250764080003</v>
       </c>
       <c r="H486">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-4668.250764080003</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-4975.113436160002</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-4984.768936160002</v>
       </c>
       <c r="H508">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-5068.875336160002</v>
       </c>
       <c r="H509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-5253.466036160002</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-5253.002636160002</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-5231.819636160002</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-5202.059036160003</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-5157.401036160002</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-5158.901836160002</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-5137.281236160002</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-5164.922836160002</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-5164.922836160002</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-5165.274736160001</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-5165.274736160001</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-5155.386536160001</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-4626.797636160001</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-4626.557636160001</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-4528.172936160002</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-4414.935536160002</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-4414.935536160002</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-4309.672536160002</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-4180.778336160001</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-4183.778336160001</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-3548.483036160001</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-3562.685436160001</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-3562.685436160001</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-3582.581836160001</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-3482.581836160001</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-3482.581836160001</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-3491.912336160001</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-3413.404936160001</v>
       </c>
       <c r="H607">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-3491.965036160001</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-3492.611436160001</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-2679.805939090002</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-2701.749139090002</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-2701.749139090002</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-2701.737339090002</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-2478.055339090002</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-2478.055339090002</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-2418.930739090002</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-2403.436539090002</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-2406.786539090001</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-2456.579633930002</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-2465.870734000002</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-2407.944034000002</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-2389.797834000002</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-2414.127334000002</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-2209.003434000002</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-2187.960054030002</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-2184.338754030002</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-2027.856554030002</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-2028.056554030002</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-2010.593454030002</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-2110.607281540002</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-2087.480475850002</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-2142.065475850002</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-2142.065475850002</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-2140.733475850002</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-2123.819875850003</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-2123.819875850003</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-2146.318575850003</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-2146.318575850003</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-2270.040475850003</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-2270.040475850003</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1882.292775850003</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-2031.513675850003</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-2050.895675850003</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-2117.880275850003</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-1926.922475850003</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1957.005775850003</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-2051.871175850003</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-2051.871175850003</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-2055.599875850003</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
